--- a/spliced/walkingToRunning/2023-03-27_19-47-31/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-47-31/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.809959862706719</v>
+        <v>-1.558092090690032</v>
       </c>
       <c r="B2" t="n">
-        <v>2.464425981623461</v>
+        <v>0.5108912702903179</v>
       </c>
       <c r="C2" t="n">
-        <v>2.473073566422869</v>
+        <v>1.960815749122113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.558092090690032</v>
+        <v>-1.325494741062512</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5108912702903179</v>
+        <v>3.293620617210238</v>
       </c>
       <c r="C3" t="n">
-        <v>1.960815749122113</v>
+        <v>0.05309254307193068</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.325494741062512</v>
+        <v>0.7431222165672173</v>
       </c>
       <c r="B4" t="n">
-        <v>3.293620617210238</v>
+        <v>1.402724462805504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05309254307193068</v>
+        <v>-1.679901339475376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7431222165672173</v>
+        <v>2.074821671235908</v>
       </c>
       <c r="B5" t="n">
-        <v>1.402724462805504</v>
+        <v>-1.928939194355179</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.679901339475376</v>
+        <v>-2.52905666828155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.074821671235908</v>
+        <v>3.729947960492444</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.928939194355179</v>
+        <v>-3.12722979934469</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.52905666828155</v>
+        <v>-2.61889575291606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.729947960492444</v>
+        <v>-1.309740603548675</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.12722979934469</v>
+        <v>-3.723056509656808</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.61889575291606</v>
+        <v>1.097793729559807</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.309740603548675</v>
+        <v>-10.97659649895218</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.723056509656808</v>
+        <v>-5.284385065430541</v>
       </c>
       <c r="C8" t="n">
-        <v>1.097793729559807</v>
+        <v>1.629254709748432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-10.97659649895218</v>
+        <v>-2.185527533003532</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.284385065430541</v>
+        <v>-9.327580903340284</v>
       </c>
       <c r="C9" t="n">
-        <v>1.629254709748432</v>
+        <v>0.09413627339798614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.185527533003532</v>
+        <v>4.113174119041981</v>
       </c>
       <c r="B10" t="n">
-        <v>-9.327580903340284</v>
+        <v>-6.550736431936665</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09413627339798614</v>
+        <v>2.042246463808018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.113174119041981</v>
+        <v>6.01964588419901</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.550736431936665</v>
+        <v>0.3379616459596031</v>
       </c>
       <c r="C11" t="n">
-        <v>2.042246463808018</v>
+        <v>-0.06193271655476229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.01964588419901</v>
+        <v>2.943291461004813</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3379616459596031</v>
+        <v>0.339280297455288</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06193271655476229</v>
+        <v>-1.968303656115117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.943291461004813</v>
+        <v>-1.721067187566203</v>
       </c>
       <c r="B13" t="n">
-        <v>0.339280297455288</v>
+        <v>2.170973975681572</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.968303656115117</v>
+        <v>0.1046053223239598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.721067187566203</v>
+        <v>-3.235397556453075</v>
       </c>
       <c r="B14" t="n">
-        <v>2.170973975681572</v>
+        <v>-3.147966375628718</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1046053223239598</v>
+        <v>-2.00323488411394</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.235397556453075</v>
+        <v>-0.1528169541683106</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.147966375628718</v>
+        <v>-4.183527493071799</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.00323488411394</v>
+        <v>0.4817037536102458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1528169541683106</v>
+        <v>3.802701440829669</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.183527493071799</v>
+        <v>-4.169063769497901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4817037536102458</v>
+        <v>2.565167040500834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.802701440829669</v>
+        <v>3.380828262532809</v>
       </c>
       <c r="B17" t="n">
-        <v>-4.169063769497901</v>
+        <v>-6.121044473740666</v>
       </c>
       <c r="C17" t="n">
-        <v>2.565167040500834</v>
+        <v>0.1218900376732013</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.380828262532809</v>
+        <v>-0.8874874531643746</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.121044473740666</v>
+        <v>-2.666994254565963</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1218900376732013</v>
+        <v>1.347052811997586</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.8874874531643746</v>
+        <v>-9.827318640588476</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.666994254565963</v>
+        <v>1.861103559581952</v>
       </c>
       <c r="C19" t="n">
-        <v>1.347052811997586</v>
+        <v>7.985667338648988</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-9.827318640588476</v>
+        <v>-2.809762274177507</v>
       </c>
       <c r="B20" t="n">
-        <v>1.861103559581952</v>
+        <v>2.697998086225652</v>
       </c>
       <c r="C20" t="n">
-        <v>7.985667338648988</v>
+        <v>0.7576566992455813</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.809762274177507</v>
+        <v>4.037018136492105</v>
       </c>
       <c r="B21" t="n">
-        <v>2.697998086225652</v>
+        <v>-2.376052915471196</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7576566992455813</v>
+        <v>-2.018577781695872</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5.506457075331898</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.59009868774606</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.0266988300582125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.450691733545613</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.12102667965644</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.359096467929008</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-3.604418606434045</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8684271347926146</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2955643468111461</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.740167403684082</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.81262268075148</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7813068606610404</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1918180868463897</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.700260833629038</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.898207216586866</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.375462932494072</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.835833433762467</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.255329332305403</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.974689759097054</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-8.058607795863464</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.702626524619664</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.054417246753779</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-4.126515001348001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.594708632497015</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-4.560519280942842</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.439459521793583</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.084467855471887</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.622863769531381</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.112303316593201</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.16303658485438</v>
       </c>
     </row>
   </sheetData>
